--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed5/result_data_KNN.xlsx
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.37</v>
+        <v>-10.534</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.458</v>
+        <v>-13.239</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.682</v>
+        <v>-12.732</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.41</v>
+        <v>-12.544</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.13</v>
+        <v>-13.935</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.96</v>
+        <v>-12.737</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.48</v>
+        <v>-13.65</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.628</v>
+        <v>-11.518</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.478</v>
+        <v>-10.744</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.978</v>
+        <v>-11.753</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-13.084</v>
+        <v>-12.228</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.162</v>
+        <v>-11.412</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-11.914</v>
+        <v>-12.729</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
